--- a/SourceData/Fundamentals_DD_wRemaining.xlsx
+++ b/SourceData/Fundamentals_DD_wRemaining.xlsx
@@ -8,22 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cdc4f9836624c718/Documents/Grad-School-Docs/CapstoneProject/Repo/SourceData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_7C3A209E177384DBDE160BBCCBD9C11F502A3397" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8BFCD2CE-545E-4168-9BAC-57CE55F68F40}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="11_7C3A209E81BB44D0BE170BC85B5DC4C1512A3397" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80D47B10-BBCA-4367-9DF5-558D03D60745}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fundamentals_Remaining" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Fundamentals_Remaining!$A$1:$D$1769</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Fundamentals_Remaining!$A$1:$E$1769</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3539" uniqueCount="3519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3544" uniqueCount="3524">
   <si>
     <t>Mnemonic</t>
   </si>
@@ -10580,6 +10592,21 @@
   </si>
   <si>
     <t>Company Initial Public Offering Date</t>
+  </si>
+  <si>
+    <t>Tier</t>
+  </si>
+  <si>
+    <t>Absolutely Keep</t>
+  </si>
+  <si>
+    <t>Likey Keep</t>
+  </si>
+  <si>
+    <t>Likely Delete</t>
+  </si>
+  <si>
+    <t>Absolutely Delete</t>
   </si>
 </sst>
 </file>
@@ -10611,7 +10638,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -10634,13 +10661,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -10982,19 +11021,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D1769"/>
+  <dimension ref="A1:K1769"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A894" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="78.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="11" max="11" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11004,8 +11045,11 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="2" t="s">
+        <v>3519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -11018,8 +11062,11 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -11033,7 +11080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -11046,8 +11093,17 @@
       <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>3520</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -11061,7 +11117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -11075,7 +11131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -11089,7 +11145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -11103,7 +11159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -11116,8 +11172,17 @@
       <c r="D9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9" t="s">
+        <v>3521</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -11131,7 +11196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -11145,7 +11210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -11158,8 +11223,14 @@
       <c r="D12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12" t="s">
+        <v>3522</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -11173,7 +11244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -11187,7 +11258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -11200,8 +11271,14 @@
       <c r="D15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15" t="s">
+        <v>3523</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -11215,7 +11292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -11229,7 +11306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -11243,7 +11320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -11257,7 +11334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -11270,8 +11347,11 @@
       <c r="D20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -11284,8 +11364,11 @@
       <c r="D21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -11299,7 +11382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -11313,7 +11396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -11327,7 +11410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -11341,7 +11424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -11355,7 +11438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -11369,7 +11452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -11380,10 +11463,10 @@
         <v>1796</v>
       </c>
       <c r="D28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -11397,7 +11480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -11411,7 +11494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -11425,7 +11508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -11663,7 +11746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -11677,7 +11760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -11691,7 +11774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -11705,7 +11788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -11719,7 +11802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -11733,7 +11816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -11747,7 +11830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -11760,8 +11843,11 @@
       <c r="D55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -11775,7 +11861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -11789,7 +11875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -11803,7 +11889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -11817,7 +11903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -11831,7 +11917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -11845,7 +11931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -11859,7 +11945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -11873,7 +11959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -12111,7 +12197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -12124,8 +12210,11 @@
       <c r="D81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -12139,7 +12228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -12153,7 +12242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -12167,7 +12256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -12181,7 +12270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -12195,7 +12284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -12209,7 +12298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -12223,7 +12312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -12237,7 +12326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -12251,7 +12340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -12265,7 +12354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -12279,7 +12368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -12293,7 +12382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -12306,8 +12395,11 @@
       <c r="D94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -12321,7 +12413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -12559,7 +12651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -12573,7 +12665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -12587,7 +12679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -12601,7 +12693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -12615,7 +12707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -12628,8 +12720,11 @@
       <c r="D117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -12643,7 +12738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -12657,7 +12752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -12671,7 +12766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -12685,7 +12780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -12699,7 +12794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -12713,7 +12808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -12727,7 +12822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -12741,7 +12836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -12755,7 +12850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -12769,7 +12864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -12783,7 +12878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -12797,7 +12892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -12811,7 +12906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -12825,7 +12920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -12839,7 +12934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -12853,7 +12948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -12866,8 +12961,11 @@
       <c r="D134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -12881,7 +12979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -12895,7 +12993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -12909,7 +13007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -12923,7 +13021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -12937,7 +13035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -12951,7 +13049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -12965,7 +13063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -12979,7 +13077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -12993,7 +13091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -13231,7 +13329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -13245,7 +13343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -13258,8 +13356,11 @@
       <c r="D162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -13273,7 +13374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -13287,7 +13388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -13301,7 +13402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -13315,7 +13416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -13329,7 +13430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -13343,7 +13444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -13357,7 +13458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -13371,7 +13472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -13385,7 +13486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -13399,7 +13500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -13413,7 +13514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -13427,7 +13528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -13441,7 +13542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -13903,7 +14004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -13917,7 +14018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -13931,7 +14032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -13944,8 +14045,11 @@
       <c r="D211">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -13958,8 +14062,11 @@
       <c r="D212">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -13973,7 +14080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -13987,7 +14094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -14001,7 +14108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -14014,8 +14121,11 @@
       <c r="D216">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -14029,7 +14139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -14043,7 +14153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -14057,7 +14167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -14071,7 +14181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -14085,7 +14195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -14099,7 +14209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -14113,7 +14223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -14575,7 +14685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -14589,7 +14699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -14602,8 +14712,11 @@
       <c r="D258">
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -14617,7 +14730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -14631,7 +14744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -14645,7 +14758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -14659,7 +14772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -14673,7 +14786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -14686,8 +14799,11 @@
       <c r="D264">
         <v>1</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -14701,7 +14817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -14715,7 +14831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -14729,7 +14845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -14743,7 +14859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -14757,7 +14873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -14771,7 +14887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -14785,7 +14901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -14799,7 +14915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -14813,7 +14929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -14827,7 +14943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -14841,7 +14957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -14855,7 +14971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -14869,7 +14985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -14883,7 +14999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -14896,8 +15012,11 @@
       <c r="D279">
         <v>1</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E279">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -14911,7 +15030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -14925,7 +15044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -14939,7 +15058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -14953,7 +15072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -14967,7 +15086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -14981,7 +15100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -14995,7 +15114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -15009,7 +15128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -15471,7 +15590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -15485,7 +15604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -15499,7 +15618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -15512,8 +15631,11 @@
       <c r="D323">
         <v>1</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -15527,7 +15649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -15541,7 +15663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -15555,7 +15677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -15569,7 +15691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -15583,7 +15705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -15597,7 +15719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -15611,7 +15733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -15625,7 +15747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -15639,7 +15761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -15653,7 +15775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -15667,7 +15789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -15681,7 +15803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -15919,7 +16041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -15933,7 +16055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -15947,7 +16069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -15961,7 +16083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -15975,7 +16097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -15989,7 +16111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -16003,7 +16125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -16016,8 +16138,11 @@
       <c r="D359">
         <v>1</v>
       </c>
-    </row>
-    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -16031,7 +16156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -16045,7 +16170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -16059,7 +16184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -16073,7 +16198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -16087,7 +16212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -16101,7 +16226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -16115,7 +16240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -16129,7 +16254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -16143,7 +16268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -16156,8 +16281,11 @@
       <c r="D369">
         <v>1</v>
       </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -16171,7 +16299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -16185,7 +16313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -16199,7 +16327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -16212,8 +16340,11 @@
       <c r="D373">
         <v>1</v>
       </c>
-    </row>
-    <row r="374" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E373">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -16227,7 +16358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -16241,7 +16372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -16255,7 +16386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -16269,7 +16400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -16283,7 +16414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -16297,7 +16428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -16311,7 +16442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -16324,8 +16455,11 @@
       <c r="D381">
         <v>1</v>
       </c>
-    </row>
-    <row r="382" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -16339,7 +16473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -16353,7 +16487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -17263,7 +17397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -17277,7 +17411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -17288,10 +17422,10 @@
         <v>2218</v>
       </c>
       <c r="D450">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -17302,10 +17436,10 @@
         <v>2219</v>
       </c>
       <c r="D451">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="452" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -17319,7 +17453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -17330,10 +17464,10 @@
         <v>2221</v>
       </c>
       <c r="D453">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -17346,8 +17480,11 @@
       <c r="D454">
         <v>1</v>
       </c>
-    </row>
-    <row r="455" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -17361,7 +17498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -17375,7 +17512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -17389,7 +17526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -17403,7 +17540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -17417,7 +17554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -17431,7 +17568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -17445,7 +17582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -17459,7 +17596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -17473,7 +17610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -17487,7 +17624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -17501,7 +17638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -17515,7 +17652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -17526,10 +17663,10 @@
         <v>2235</v>
       </c>
       <c r="D467">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="468" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -17543,7 +17680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -17554,10 +17691,10 @@
         <v>2237</v>
       </c>
       <c r="D469">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="470" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -17571,7 +17708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -17585,7 +17722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -17599,7 +17736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -17613,7 +17750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -17627,7 +17764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -17640,8 +17777,11 @@
       <c r="D475">
         <v>1</v>
       </c>
-    </row>
-    <row r="476" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -17655,7 +17795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -17666,10 +17806,10 @@
         <v>2245</v>
       </c>
       <c r="D477">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -17680,10 +17820,10 @@
         <v>2246</v>
       </c>
       <c r="D478">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -17697,7 +17837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -17711,7 +17851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -17725,7 +17865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -17739,7 +17879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -17753,7 +17893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -17767,7 +17907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -17781,7 +17921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -17795,7 +17935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -17809,7 +17949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -17823,7 +17963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -17837,7 +17977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -17851,7 +17991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -17865,7 +18005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -17879,7 +18019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -17893,7 +18033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -17906,8 +18046,11 @@
       <c r="D494">
         <v>1</v>
       </c>
-    </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -17921,7 +18064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -17935,7 +18078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -17949,7 +18092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -17963,7 +18106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -17977,7 +18120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -17991,7 +18134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -18005,7 +18148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -18019,7 +18162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -18033,7 +18176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -18047,7 +18190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -18061,7 +18204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -18075,7 +18218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -18088,8 +18231,11 @@
       <c r="D507">
         <v>1</v>
       </c>
-    </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E507">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -18103,7 +18249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -18117,7 +18263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -18131,7 +18277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -18145,7 +18291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -18607,7 +18753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545" s="1">
         <v>543</v>
       </c>
@@ -18621,7 +18767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -18635,7 +18781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547" s="1">
         <v>545</v>
       </c>
@@ -18649,7 +18795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548" s="1">
         <v>546</v>
       </c>
@@ -18663,7 +18809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -18677,7 +18823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -18691,7 +18837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -18705,7 +18851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -18719,7 +18865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553" s="1">
         <v>551</v>
       </c>
@@ -18733,7 +18879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A554" s="1">
         <v>552</v>
       </c>
@@ -18746,8 +18892,11 @@
       <c r="D554">
         <v>1</v>
       </c>
-    </row>
-    <row r="555" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E554">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -18761,7 +18910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -18775,7 +18924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -18789,7 +18938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -18803,7 +18952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -18817,7 +18966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A560" s="1">
         <v>558</v>
       </c>
@@ -19167,7 +19316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585" s="1">
         <v>583</v>
       </c>
@@ -19178,7 +19327,7 @@
         <v>2353</v>
       </c>
       <c r="D585">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
@@ -19447,7 +19596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605" s="1">
         <v>603</v>
       </c>
@@ -19458,10 +19607,10 @@
         <v>2373</v>
       </c>
       <c r="D605">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606" s="1">
         <v>604</v>
       </c>
@@ -19472,10 +19621,10 @@
         <v>2374</v>
       </c>
       <c r="D606">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607" s="1">
         <v>605</v>
       </c>
@@ -19486,10 +19635,10 @@
         <v>2375</v>
       </c>
       <c r="D607">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608" s="1">
         <v>606</v>
       </c>
@@ -19500,7 +19649,7 @@
         <v>2376</v>
       </c>
       <c r="D608">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.3">
@@ -19727,7 +19876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A625" s="1">
         <v>623</v>
       </c>
@@ -19741,7 +19890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A626" s="1">
         <v>624</v>
       </c>
@@ -19755,7 +19904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A627" s="1">
         <v>625</v>
       </c>
@@ -19769,7 +19918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A628" s="1">
         <v>626</v>
       </c>
@@ -19783,7 +19932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A629" s="1">
         <v>627</v>
       </c>
@@ -19797,7 +19946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A630" s="1">
         <v>628</v>
       </c>
@@ -19811,7 +19960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A631" s="1">
         <v>629</v>
       </c>
@@ -19825,7 +19974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A632" s="1">
         <v>630</v>
       </c>
@@ -19838,8 +19987,11 @@
       <c r="D632">
         <v>1</v>
       </c>
-    </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E632">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A633" s="1">
         <v>631</v>
       </c>
@@ -19852,8 +20004,11 @@
       <c r="D633">
         <v>1</v>
       </c>
-    </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E633">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A634" s="1">
         <v>632</v>
       </c>
@@ -19867,7 +20022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A635" s="1">
         <v>633</v>
       </c>
@@ -19881,7 +20036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A636" s="1">
         <v>634</v>
       </c>
@@ -19895,7 +20050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="637" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A637" s="1">
         <v>635</v>
       </c>
@@ -19909,7 +20064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A638" s="1">
         <v>636</v>
       </c>
@@ -19922,8 +20077,11 @@
       <c r="D638">
         <v>1</v>
       </c>
-    </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E638">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A639" s="1">
         <v>637</v>
       </c>
@@ -19937,7 +20095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A640" s="1">
         <v>638</v>
       </c>
@@ -19951,7 +20109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A641" s="1">
         <v>639</v>
       </c>
@@ -19965,7 +20123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A642" s="1">
         <v>640</v>
       </c>
@@ -19979,7 +20137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A643" s="1">
         <v>641</v>
       </c>
@@ -19993,7 +20151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="644" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A644" s="1">
         <v>642</v>
       </c>
@@ -20007,7 +20165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A645" s="1">
         <v>643</v>
       </c>
@@ -20020,8 +20178,11 @@
       <c r="D645">
         <v>1</v>
       </c>
-    </row>
-    <row r="646" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E645">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A646" s="1">
         <v>644</v>
       </c>
@@ -20035,7 +20196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A647" s="1">
         <v>645</v>
       </c>
@@ -20049,7 +20210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A648" s="1">
         <v>646</v>
       </c>
@@ -20063,7 +20224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A649" s="1">
         <v>647</v>
       </c>
@@ -20077,7 +20238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A650" s="1">
         <v>648</v>
       </c>
@@ -20091,7 +20252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A651" s="1">
         <v>649</v>
       </c>
@@ -20105,7 +20266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A652" s="1">
         <v>650</v>
       </c>
@@ -20119,7 +20280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A653" s="1">
         <v>651</v>
       </c>
@@ -20133,7 +20294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A654" s="1">
         <v>652</v>
       </c>
@@ -20147,7 +20308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A655" s="1">
         <v>653</v>
       </c>
@@ -20161,7 +20322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A656" s="1">
         <v>654</v>
       </c>
@@ -20399,7 +20560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A673" s="1">
         <v>671</v>
       </c>
@@ -20413,7 +20574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A674" s="1">
         <v>672</v>
       </c>
@@ -20427,7 +20588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A675" s="1">
         <v>673</v>
       </c>
@@ -20440,8 +20601,11 @@
       <c r="D675">
         <v>1</v>
       </c>
-    </row>
-    <row r="676" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E675">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="676" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A676" s="1">
         <v>674</v>
       </c>
@@ -20455,7 +20619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A677" s="1">
         <v>675</v>
       </c>
@@ -20469,7 +20633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A678" s="1">
         <v>676</v>
       </c>
@@ -20483,7 +20647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A679" s="1">
         <v>677</v>
       </c>
@@ -20497,7 +20661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A680" s="1">
         <v>678</v>
       </c>
@@ -20511,7 +20675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A681" s="1">
         <v>679</v>
       </c>
@@ -20525,7 +20689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A682" s="1">
         <v>680</v>
       </c>
@@ -20539,7 +20703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A683" s="1">
         <v>681</v>
       </c>
@@ -20553,7 +20717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A684" s="1">
         <v>682</v>
       </c>
@@ -20567,7 +20731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="685" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A685" s="1">
         <v>683</v>
       </c>
@@ -20581,7 +20745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A686" s="1">
         <v>684</v>
       </c>
@@ -20595,7 +20759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A687" s="1">
         <v>685</v>
       </c>
@@ -20609,7 +20773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A688" s="1">
         <v>686</v>
       </c>
@@ -20623,7 +20787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A689" s="1">
         <v>687</v>
       </c>
@@ -20636,8 +20800,11 @@
       <c r="D689">
         <v>1</v>
       </c>
-    </row>
-    <row r="690" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E689">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A690" s="1">
         <v>688</v>
       </c>
@@ -20650,8 +20817,11 @@
       <c r="D690">
         <v>1</v>
       </c>
-    </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E690">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="691" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A691" s="1">
         <v>689</v>
       </c>
@@ -20665,7 +20835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A692" s="1">
         <v>690</v>
       </c>
@@ -20679,7 +20849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="693" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A693" s="1">
         <v>691</v>
       </c>
@@ -20693,7 +20863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="694" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A694" s="1">
         <v>692</v>
       </c>
@@ -20707,7 +20877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A695" s="1">
         <v>693</v>
       </c>
@@ -20721,7 +20891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A696" s="1">
         <v>694</v>
       </c>
@@ -20735,7 +20905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A697" s="1">
         <v>695</v>
       </c>
@@ -20749,7 +20919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A698" s="1">
         <v>696</v>
       </c>
@@ -20763,7 +20933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A699" s="1">
         <v>697</v>
       </c>
@@ -20776,8 +20946,11 @@
       <c r="D699">
         <v>1</v>
       </c>
-    </row>
-    <row r="700" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E699">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="700" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A700" s="1">
         <v>698</v>
       </c>
@@ -20791,7 +20964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A701" s="1">
         <v>699</v>
       </c>
@@ -20805,7 +20978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A702" s="1">
         <v>700</v>
       </c>
@@ -20819,7 +20992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A703" s="1">
         <v>701</v>
       </c>
@@ -20833,7 +21006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A704" s="1">
         <v>702</v>
       </c>
@@ -20846,8 +21019,11 @@
       <c r="D704">
         <v>1</v>
       </c>
-    </row>
-    <row r="705" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E704">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A705" s="1">
         <v>703</v>
       </c>
@@ -20861,7 +21037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A706" s="1">
         <v>704</v>
       </c>
@@ -20875,7 +21051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A707" s="1">
         <v>705</v>
       </c>
@@ -20889,7 +21065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A708" s="1">
         <v>706</v>
       </c>
@@ -20903,7 +21079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A709" s="1">
         <v>707</v>
       </c>
@@ -20917,7 +21093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A710" s="1">
         <v>708</v>
       </c>
@@ -20931,7 +21107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A711" s="1">
         <v>709</v>
       </c>
@@ -20945,7 +21121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A712" s="1">
         <v>710</v>
       </c>
@@ -20959,7 +21135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A713" s="1">
         <v>711</v>
       </c>
@@ -20973,7 +21149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A714" s="1">
         <v>712</v>
       </c>
@@ -20987,7 +21163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A715" s="1">
         <v>713</v>
       </c>
@@ -21001,7 +21177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A716" s="1">
         <v>714</v>
       </c>
@@ -21015,7 +21191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A717" s="1">
         <v>715</v>
       </c>
@@ -21029,7 +21205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A718" s="1">
         <v>716</v>
       </c>
@@ -21043,7 +21219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A719" s="1">
         <v>717</v>
       </c>
@@ -21056,8 +21232,11 @@
       <c r="D719">
         <v>1</v>
       </c>
-    </row>
-    <row r="720" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="E719">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="720" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A720" s="1">
         <v>718</v>
       </c>
@@ -35617,7 +35796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1760" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1760" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A1760" s="1">
         <v>1758</v>
       </c>
@@ -35628,7 +35807,7 @@
         <v>3509</v>
       </c>
       <c r="D1760">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1761" spans="1:4" x14ac:dyDescent="0.3">
@@ -35758,7 +35937,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1769" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <autoFilter ref="A1:E1769" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="3">
       <filters>
         <filter val="1"/>
